--- a/webscrapping school/msaces/Boletim_da_PI_-_2025-07-03.xlsx
+++ b/webscrapping school/msaces/Boletim_da_PI_-_2025-07-03.xlsx
@@ -476,7 +476,11 @@
           <t>Data</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Nome do requerente, nacionalidade, profissão, morada.</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
@@ -498,7 +502,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PT MANUEL ALEXANDRE CARNEIRO BARBOSA</t>
+          <t>MANUEL ALEXANDRE CARNEIRO BARBOSA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -526,7 +530,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PT COSTA ALMEIDA AMBIENTE, LDA</t>
+          <t>COSTA ALMEIDA AMBIENTE, LDA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -535,7 +539,11 @@
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[IMAGE: images/747777.jpeg]</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -550,7 +558,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PT ÓBVIO E POSITIVO, LDA</t>
+          <t>ÓBVIO E POSITIVO, LDA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -563,11 +571,7 @@
           <t>CAPITAL CONSULTORES</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[IMAGE: images/747777.jpeg]</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -582,7 +586,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PT LÍDIA JOANA MARTINS FALCÃO</t>
+          <t>LÍDIA JOANA MARTINS FALCÃO</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -593,7 +597,7 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[IMAGE: images/747778.jpeg]</t>
+          <t>(531) 27.5.10 ; 27.99.11</t>
         </is>
       </c>
     </row>
@@ -610,7 +614,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PT FASHION ZONE, LDA.</t>
+          <t>FASHION ZONE, LDA. E INDUSTRIAL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -621,7 +625,7 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[IMAGE: images/747779.jpeg]</t>
+          <t>(531) 26.13.1 ; 27.5.17</t>
         </is>
       </c>
     </row>
@@ -638,7 +642,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PT NUMEROS EXTENSIVEIS LDA</t>
+          <t>NUMEROS EXTENSIVEIS LDA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -651,11 +655,7 @@
           <t>AÇAI LOVERS</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>[IMAGE: images/747780.jpeg]</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PT RICARDO JORGE MATEUS RODRIGUES ALMEIDA SANTOS</t>
+          <t>RICARDO JORGE MATEUS RODRIGUES ALMEIDA SANTOS</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -683,11 +683,7 @@
           <t>LONGBOARD STUDIO</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>[IMAGE: images/747782.jpeg]</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -702,7 +698,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PT ANDRÉ TORRES GONÇALVES MATIAS PT NUTREVOLUTION HEALTH SOLUTION UNIPESSOAL LDA</t>
+          <t>ANDRÉ TORRES GONÇALVES MATIAS PT NUTREVOLUTION HEALTH SOLUTION UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -710,12 +706,12 @@
           <t>05</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>[IMAGE: images/747783.jpeg]</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>BOLETIM DA PROPRIEDADE</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -730,7 +726,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PT SOFTINGAL - SOFTWARE AND CONSULTING, LDA.</t>
+          <t>SOFTINGAL - SOFTWARE AND CONSULTING, LDA.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -738,11 +734,7 @@
           <t>42</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>VELOCIA</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>[IMAGE: images/747784.jpeg]</t>
@@ -762,7 +754,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PT MIRIAM RAQUEL TRONCOSO PEREIRA ROCHA</t>
+          <t>MIRIAM RAQUEL TRONCOSO PEREIRA ROCHA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -771,11 +763,7 @@
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>[IMAGE: images/747785.jpeg]</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -790,7 +778,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PT ÉLIO JOSÉ SACADURA COSTA</t>
+          <t>ÉLIO JOSÉ SACADURA COSTA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -801,7 +789,7 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[IMAGE: images/747786.jpeg]</t>
+          <t>(531) 20.1.3 ; 29.1.4</t>
         </is>
       </c>
     </row>
@@ -818,7 +806,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PT UP MOTION, LDA</t>
+          <t>UP MOTION, LDA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -829,7 +817,7 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[IMAGE: images/747787.jpeg]</t>
+          <t>(531) 24.17.1 ; 27.5.17 ; 29.1.3</t>
         </is>
       </c>
     </row>
@@ -846,7 +834,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PT ANA LUISA MARTINS NEIVA</t>
+          <t>ANA LUISA MARTINS NEIVA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -854,11 +842,7 @@
           <t>05</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>CICLO INFLAMATÓRIO NEURO DIGESTIVO</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>[IMAGE: images/747788.jpeg]</t>
@@ -878,7 +862,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PT AÇORLIDER TABACARIAS LDA</t>
+          <t>AÇORLIDER TABACARIAS LDA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -891,11 +875,7 @@
           <t>AZOREXPRESS</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>[IMAGE: images/747789.jpeg]</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -910,7 +890,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PT ANA CRISTINA DA MOTA DE PINA E CUNHA</t>
+          <t>ANA CRISTINA DA MOTA DE PINA E CUNHA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -919,11 +899,7 @@
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[IMAGE: images/747790.jpeg]</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -938,7 +914,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PT SALETE MANUEL DOS SANTOS PINTO</t>
+          <t>SALETE MANUEL DOS SANTOS PINTO</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -951,11 +927,7 @@
           <t>SALLUS CLINIC</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>[IMAGE: images/747791.jpeg]</t>
-        </is>
-      </c>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -970,7 +942,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PT IRMANDADE E SANTA CASA DA MISERICÓRDIA DE SANTO TIRSO</t>
+          <t>IRMANDADE E SANTA CASA DA MISERICÓRDIA DE SANTO TIRSO</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -981,7 +953,7 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[IMAGE: images/747792.jpeg]</t>
+          <t>(531) 2.9.14 ; 25.1.25</t>
         </is>
       </c>
     </row>
@@ -998,7 +970,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PT VANGUARDMIRROR - UNIPESSOAL LDA</t>
+          <t>VANGUARDMIRROR - UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1007,7 +979,11 @@
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>[IMAGE: images/747794.jpeg]</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1022,7 +998,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PT PAULO RICARDO DA CUNHA LOPES</t>
+          <t>PAULO RICARDO DA CUNHA LOPES</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1035,11 +1011,7 @@
           <t>VALBERY</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>[IMAGE: images/747794.jpeg]</t>
-        </is>
-      </c>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1054,7 +1026,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PT FORTUNA LÍMPIDA UNIPESSOAL LDA</t>
+          <t>FORTUNA LÍMPIDA UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1067,11 +1039,7 @@
           <t>YELLE</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>[IMAGE: images/747795.jpeg]</t>
-        </is>
-      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1086,7 +1054,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PT RAFAELA &amp; PAULO LDA</t>
+          <t>RAFAELA &amp; PAULO LDA E INDUSTRIAL</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1097,7 +1065,7 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[IMAGE: images/747796.jpeg]</t>
+          <t>(531) 1.5.15</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1082,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PT FAROL DO MONTE LDA</t>
+          <t>FAROL DO MONTE LDA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1124,14 +1092,10 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ENTRE LINHAS O QUE O DESPORTO NÃO MOSTRA</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>[IMAGE: images/747799.jpeg]</t>
-        </is>
-      </c>
+          <t>ENTRE LINHAS O QUE O</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1146,7 +1110,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PT FAROL DO MONTE LDA</t>
+          <t>FAROL DO MONTE LDA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1155,7 +1119,11 @@
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>[IMAGE: images/747801.jpeg]</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1170,7 +1138,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PT MARTA CRISTINA JORGE VIVEIROS PT GILMARA SIMPLICIO DA SILVA</t>
+          <t>MARTA CRISTINA JORGE VIVEIROS PT GILMARA SIMPLICIO DA SILVA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1183,11 +1151,7 @@
           <t>AMARNUTRIX</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>[IMAGE: images/747801.jpeg]</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1202,7 +1166,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PT HENRIQUE GODINHO ELISIÁRIO</t>
+          <t>HENRIQUE GODINHO ELISIÁRIO</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1213,7 +1177,7 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[IMAGE: images/747802.jpeg]</t>
+          <t>(531) 1.3.2 ; 1.15.3</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1194,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PT FILOMENA CORREIA TAVARES</t>
+          <t>FILOMENA CORREIA TAVARES</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1241,7 +1205,7 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[IMAGE: images/747804.jpeg]</t>
+          <t>(531) 27.5.10 ; 29.1.97</t>
         </is>
       </c>
     </row>
@@ -1258,7 +1222,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PT ALEXANDRE MANUEL VAREJÃO MOREIRA</t>
+          <t>ALEXANDRE MANUEL VAREJÃO MOREIRA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1266,12 +1230,12 @@
           <t>05</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>[IMAGE: images/747805.jpeg]</t>
-        </is>
-      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>BOLETIM DA PROPRIEDADE</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1286,7 +1250,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PT UNIVERSIDADE DE AVEIRO</t>
+          <t>UNIVERSIDADE DE AVEIRO</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1294,11 +1258,7 @@
           <t>09</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>JOGO DA POUPANÇA</t>
-        </is>
-      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -1314,7 +1274,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PT UNIVERSIDADE DE AVEIRO</t>
+          <t>UNIVERSIDADE DE AVEIRO</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1323,7 +1283,11 @@
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>[IMAGE: images/747840.jpeg]</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1338,7 +1302,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PT ASSOCIAÇÃO DESPORTIVA E RECREATIVA - CENTRO CULTURAL E SOCIAL DA QUINTA DE S. PEDRO</t>
+          <t>ASSOCIAÇÃO DESPORTIVA E RECREATIVA - CENTRO CULTURAL E SOCIAL DA QUINTA DE S. PEDRO</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1349,7 +1313,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[IMAGE: images/747840.jpeg]</t>
+          <t>(531) 27.5.4 ; 27.5.10</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1330,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PT ACIAB - ASSOCIAÇÃO COMERCIAL E INDUSTRIAL DE ARCOS DE VALDEVEZ E PONTE DA BARCA</t>
+          <t>ACIAB - ASSOCIAÇÃO COMERCIAL E INDUSTRIAL DE ARCOS DE VALDEVEZ E PONTE DA BARCA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1376,14 +1340,10 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>GREEN HUB - INCUBADORA DE EMPRESAS</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>[IMAGE: images/747841.jpeg]</t>
-        </is>
-      </c>
+          <t>GREEN HUB - INCUBADORA DE</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1398,7 +1358,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PT VISUAL FACTORY, LDA.</t>
+          <t>VISUAL FACTORY, LDA.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1406,11 +1366,7 @@
           <t>41</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>SABORES DO TACHO</t>
-        </is>
-      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
           <t>[IMAGE: images/747842.jpeg]</t>
@@ -1430,7 +1386,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PT PINTO LOPES VIAGENS, S.A.</t>
+          <t>PINTO LOPES VIAGENS, S.A.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1443,11 +1399,7 @@
           <t>VIAGENS COM ESPECIALISTAS</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>[IMAGE: images/747843.jpeg]</t>
-        </is>
-      </c>
+      <c r="F35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1462,7 +1414,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PT AHMED ASHRAF GAMAL EL DIN ABDEL HAY</t>
+          <t>AHMED ASHRAF GAMAL EL DIN ABDEL HAY</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1475,11 +1427,7 @@
           <t>DÖNER KEBAB CLEOPATRA</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>[IMAGE: images/747844.jpeg]</t>
-        </is>
-      </c>
+      <c r="F36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1494,7 +1442,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PT PEREIRA TOMÁS &amp; PEREIRA TOMÁS - LIMITADA</t>
+          <t>PEREIRA TOMÁS &amp; PEREIRA TOMÁS - LIMITADA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1507,11 +1455,7 @@
           <t>AURA BY MARIA</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>[IMAGE: images/747845.jpeg]</t>
-        </is>
-      </c>
+      <c r="F37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1526,7 +1470,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PT SÓNIA MARIA SÁ CARVALHO</t>
+          <t>SÓNIA MARIA SÁ CARVALHO</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1537,7 +1481,7 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[IMAGE: images/747912.jpeg]</t>
+          <t>(531) 7.1.24</t>
         </is>
       </c>
     </row>
@@ -1554,7 +1498,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PT WINE-TIME EUROPE LDA</t>
+          <t>WINE-TIME EUROPE LDA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1567,11 +1511,7 @@
           <t>QUICK WINES</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>[IMAGE: images/747914.jpeg]</t>
-        </is>
-      </c>
+      <c r="F39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/webscrapping school/msaces/Boletim_da_PI_-_2025-07-03.xlsx
+++ b/webscrapping school/msaces/Boletim_da_PI_-_2025-07-03.xlsx
@@ -595,11 +595,7 @@
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>(531) 27.5.10 ; 27.99.11</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -623,11 +619,7 @@
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>(531) 26.13.1 ; 27.5.17</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -706,11 +698,7 @@
           <t>05</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>BOLETIM DA PROPRIEDADE</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -734,7 +722,11 @@
           <t>42</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>VELOCIA</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>[IMAGE: images/747784.jpeg]</t>
@@ -762,7 +754,11 @@
           <t>24</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>E INDUSTRIAL</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -787,11 +783,7 @@
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>(531) 20.1.3 ; 29.1.4</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -815,11 +807,7 @@
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>(531) 24.17.1 ; 27.5.17 ; 29.1.3</t>
-        </is>
-      </c>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -842,7 +830,11 @@
           <t>05</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>CICLO INFLAMATÓRIO NEURO  DIGESTIVO</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>[IMAGE: images/747788.jpeg]</t>
@@ -898,7 +890,11 @@
           <t>44</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>E INDUSTRIAL</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -951,11 +947,7 @@
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>(531) 2.9.14 ; 25.1.25</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1063,11 +1055,7 @@
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>(531) 1.5.15</t>
-        </is>
-      </c>
+      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1092,7 +1080,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ENTRE LINHAS O QUE O</t>
+          <t>ENTRE LINHAS O QUE O  DESPORTO NÃO MOSTRA</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1118,7 +1106,11 @@
           <t>38</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>VIRAR O JOGO QUANDO O  DESPORTO SE TORNA VIDA</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>[IMAGE: images/747801.jpeg]</t>
@@ -1175,11 +1167,7 @@
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>(531) 1.3.2 ; 1.15.3</t>
-        </is>
-      </c>
+      <c r="F27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1203,11 +1191,7 @@
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>(531) 27.5.10 ; 29.1.97</t>
-        </is>
-      </c>
+      <c r="F28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1230,11 +1214,7 @@
           <t>05</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>BOLETIM DA PROPRIEDADE</t>
-        </is>
-      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -1258,7 +1238,11 @@
           <t>09</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>E INDUSTRIAL</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -1311,11 +1295,7 @@
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>(531) 27.5.4 ; 27.5.10</t>
-        </is>
-      </c>
+      <c r="F32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1340,7 +1320,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>GREEN HUB - INCUBADORA DE</t>
+          <t>GREEN HUB - INCUBADORA DE  EMPRESAS</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -1366,7 +1346,11 @@
           <t>41</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>SABORES DO TACHO</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr">
         <is>
           <t>[IMAGE: images/747842.jpeg]</t>
@@ -1479,11 +1463,7 @@
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>(531) 7.1.24</t>
-        </is>
-      </c>
+      <c r="F38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
